--- a/prototype/assets/agriculture product catalog.xlsx
+++ b/prototype/assets/agriculture product catalog.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/private/var/mobile/Containers/Data/Application/8D28E78B-4FC4-4820-82C7-F1042EB94D57/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7500" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="1160">
   <si>
     <t>种植果蔬</t>
   </si>
@@ -3224,13 +3219,302 @@
   </si>
   <si>
     <t>商业服务</t>
+  </si>
+  <si>
+    <t>龙井茶</t>
+  </si>
+  <si>
+    <t>黄山毛峰</t>
+  </si>
+  <si>
+    <t>庐山云雾</t>
+  </si>
+  <si>
+    <t>祁门红茶</t>
+  </si>
+  <si>
+    <t>荔枝红茶</t>
+  </si>
+  <si>
+    <t>大吉岭红茶</t>
+  </si>
+  <si>
+    <t>锡兰高地茶</t>
+  </si>
+  <si>
+    <t>滇红工夫</t>
+  </si>
+  <si>
+    <t>白茶</t>
+  </si>
+  <si>
+    <t>银针白毫</t>
+  </si>
+  <si>
+    <t>白牡丹</t>
+  </si>
+  <si>
+    <t>安吉白茶</t>
+  </si>
+  <si>
+    <t>南山寿眉</t>
+  </si>
+  <si>
+    <t>蒙顶黄芽</t>
+  </si>
+  <si>
+    <t>霍山黄芽</t>
+  </si>
+  <si>
+    <t>黄山毛尖</t>
+  </si>
+  <si>
+    <t>君山银针</t>
+  </si>
+  <si>
+    <t>北港毛尖</t>
+  </si>
+  <si>
+    <t>温州黄汤</t>
+  </si>
+  <si>
+    <t>鹿苑毛尖</t>
+  </si>
+  <si>
+    <t>海马宫茶</t>
+  </si>
+  <si>
+    <t>青茶</t>
+  </si>
+  <si>
+    <t>冻顶乌龙茶</t>
+  </si>
+  <si>
+    <t>武夷岩茶</t>
+  </si>
+  <si>
+    <t>闽北水仙</t>
+  </si>
+  <si>
+    <t>白毛猴</t>
+  </si>
+  <si>
+    <t>凤凰水仙</t>
+  </si>
+  <si>
+    <t>武夷肉桂</t>
+  </si>
+  <si>
+    <t>普洱茶</t>
+  </si>
+  <si>
+    <t>六堡茶</t>
+  </si>
+  <si>
+    <t>湖南黑茶</t>
+  </si>
+  <si>
+    <t>湘尖</t>
+  </si>
+  <si>
+    <t>四川边茶</t>
+  </si>
+  <si>
+    <t>老青茶</t>
+  </si>
+  <si>
+    <t>黑砖茶</t>
+  </si>
+  <si>
+    <t>茯茶</t>
+  </si>
+  <si>
+    <t>花草茶</t>
+  </si>
+  <si>
+    <t>茉莉花茶</t>
+  </si>
+  <si>
+    <t>花果茶</t>
+  </si>
+  <si>
+    <t>菊花茶</t>
+  </si>
+  <si>
+    <t>加工茶</t>
+  </si>
+  <si>
+    <t>紧压茶</t>
+  </si>
+  <si>
+    <t>萃取茶</t>
+  </si>
+  <si>
+    <t>果味茶</t>
+  </si>
+  <si>
+    <t>速溶茶</t>
+  </si>
+  <si>
+    <t>茶叶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧螺春</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马奶子</t>
+  </si>
+  <si>
+    <t>黑莓</t>
+  </si>
+  <si>
+    <t>覆盆子</t>
+  </si>
+  <si>
+    <t>青提</t>
+  </si>
+  <si>
+    <t>红提</t>
+  </si>
+  <si>
+    <t>水晶葡萄</t>
+  </si>
+  <si>
+    <t>蜜橘</t>
+  </si>
+  <si>
+    <t>砂糖橘</t>
+  </si>
+  <si>
+    <t>金橘</t>
+  </si>
+  <si>
+    <t>蜜柑</t>
+  </si>
+  <si>
+    <t>甜橙</t>
+  </si>
+  <si>
+    <t>脐橙</t>
+  </si>
+  <si>
+    <t>西柚</t>
+  </si>
+  <si>
+    <t>葡萄柚</t>
+  </si>
+  <si>
+    <t>文旦</t>
+  </si>
+  <si>
+    <t>莱姆</t>
+  </si>
+  <si>
+    <t>蟠桃</t>
+  </si>
+  <si>
+    <t>水蜜桃</t>
+  </si>
+  <si>
+    <t>黄桃</t>
+  </si>
+  <si>
+    <t>李子</t>
+  </si>
+  <si>
+    <t>梅子</t>
+  </si>
+  <si>
+    <t>西梅</t>
+  </si>
+  <si>
+    <t>大枣</t>
+  </si>
+  <si>
+    <t>沙枣</t>
+  </si>
+  <si>
+    <t>海枣</t>
+  </si>
+  <si>
+    <t>龙眼（桂圆）</t>
+  </si>
+  <si>
+    <t>槟榔</t>
+  </si>
+  <si>
+    <t>海棠果</t>
+  </si>
+  <si>
+    <t>沙果</t>
+  </si>
+  <si>
+    <t>黑布林</t>
+  </si>
+  <si>
+    <t>白果</t>
+  </si>
+  <si>
+    <t>罗汉果</t>
+  </si>
+  <si>
+    <t>美人瓜</t>
+  </si>
+  <si>
+    <t>香瓜</t>
+  </si>
+  <si>
+    <t>乳瓜</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>栗子</t>
+  </si>
+  <si>
+    <t>椰子</t>
+  </si>
+  <si>
+    <t>奇异果</t>
+  </si>
+  <si>
+    <t>芭乐</t>
+  </si>
+  <si>
+    <t>百合</t>
+  </si>
+  <si>
+    <t>拐枣</t>
+  </si>
+  <si>
+    <t>黄河蜜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果（红富士，红星，国光，秦冠，黄元帅）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梨（砂糖梨，黄金梨，莱阳梨，香梨，雪梨，香蕉梨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -3243,6 +3527,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -3353,12 +3651,1380 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="457">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3389,12 +5055,483 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="457">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3449,7 +5586,7 @@
     </a:clrScheme>
     <a:fontScheme name="办公室">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3484,7 +5621,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3661,7 +5798,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3669,24 +5806,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN83"/>
+  <dimension ref="A1:AN115"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="AL51" sqref="AL51"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="12.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -3750,9 +5887,9 @@
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+    <row r="2" spans="1:40">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
@@ -3830,9 +5967,9 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+    <row r="3" spans="1:40">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
@@ -3900,9 +6037,9 @@
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+    <row r="4" spans="1:40">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
@@ -3964,9 +6101,9 @@
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:40">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -4024,9 +6161,9 @@
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+    <row r="6" spans="1:40">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
         <v>66</v>
       </c>
@@ -4112,9 +6249,9 @@
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+    <row r="7" spans="1:40">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="2" t="s">
         <v>89</v>
       </c>
@@ -4160,9 +6297,9 @@
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:40">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -4272,9 +6409,9 @@
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+    <row r="9" spans="1:40">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="2" t="s">
         <v>125</v>
       </c>
@@ -4334,9 +6471,9 @@
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+    <row r="10" spans="1:40">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="2" t="s">
         <v>135</v>
       </c>
@@ -4390,9 +6527,9 @@
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+    <row r="11" spans="1:40">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
         <v>141</v>
       </c>
@@ -4470,9 +6607,9 @@
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+    <row r="12" spans="1:40">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
         <v>160</v>
       </c>
@@ -4538,9 +6675,9 @@
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+    <row r="13" spans="1:40">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="2" t="s">
         <v>173</v>
       </c>
@@ -4592,9 +6729,9 @@
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="1:40">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12" t="s">
         <v>178</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -4650,9 +6787,9 @@
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+    <row r="15" spans="1:40">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="2" t="s">
         <v>186</v>
       </c>
@@ -4720,9 +6857,9 @@
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+    <row r="16" spans="1:40">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="2" t="s">
         <v>200</v>
       </c>
@@ -4810,9 +6947,9 @@
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+    <row r="17" spans="1:40">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="2" t="s">
         <v>224</v>
       </c>
@@ -4880,9 +7017,9 @@
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+    <row r="18" spans="1:40">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3" t="s">
         <v>238</v>
       </c>
@@ -4944,11 +7081,11 @@
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:40">
+      <c r="A19" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="12" t="s">
         <v>250</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -5044,9 +7181,9 @@
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+    <row r="20" spans="1:40">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="2" t="s">
         <v>278</v>
       </c>
@@ -5096,9 +7233,9 @@
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+    <row r="21" spans="1:40">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="2" t="s">
         <v>283</v>
       </c>
@@ -5152,9 +7289,9 @@
       <c r="AM21" s="2"/>
       <c r="AN21" s="2"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+    <row r="22" spans="1:40">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="2" t="s">
         <v>290</v>
       </c>
@@ -5218,9 +7355,9 @@
       <c r="AM22" s="2"/>
       <c r="AN22" s="2"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+    <row r="23" spans="1:40">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="2" t="s">
         <v>302</v>
       </c>
@@ -5270,9 +7407,9 @@
       <c r="AM23" s="2"/>
       <c r="AN23" s="2"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+    <row r="24" spans="1:40">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="2" t="s">
         <v>307</v>
       </c>
@@ -5336,9 +7473,9 @@
       <c r="AM24" s="2"/>
       <c r="AN24" s="2"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="1:40">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12" t="s">
         <v>319</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -5392,9 +7529,9 @@
       <c r="AM25" s="2"/>
       <c r="AN25" s="2"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+    <row r="26" spans="1:40">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="2" t="s">
         <v>326</v>
       </c>
@@ -5460,9 +7597,9 @@
       <c r="AM26" s="2"/>
       <c r="AN26" s="2"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+    <row r="27" spans="1:40">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="2" t="s">
         <v>339</v>
       </c>
@@ -5514,9 +7651,9 @@
       <c r="AM27" s="2"/>
       <c r="AN27" s="2"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9" t="s">
+    <row r="28" spans="1:40">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12" t="s">
         <v>345</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -5584,9 +7721,9 @@
       <c r="AM28" s="2"/>
       <c r="AN28" s="2"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+    <row r="29" spans="1:40">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="2" t="s">
         <v>359</v>
       </c>
@@ -5680,9 +7817,9 @@
       <c r="AM29" s="2"/>
       <c r="AN29" s="2"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
+    <row r="30" spans="1:40">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="2" t="s">
         <v>386</v>
       </c>
@@ -5746,9 +7883,9 @@
       <c r="AM30" s="2"/>
       <c r="AN30" s="2"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
+    <row r="31" spans="1:40">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="3" t="s">
         <v>398</v>
       </c>
@@ -5806,11 +7943,11 @@
       <c r="AM31" s="2"/>
       <c r="AN31" s="2"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:40">
+      <c r="A32" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="12" t="s">
         <v>407</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -5912,9 +8049,9 @@
       <c r="AM32" s="2"/>
       <c r="AN32" s="2"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+    <row r="33" spans="1:40">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="4" t="s">
         <v>438</v>
       </c>
@@ -5980,9 +8117,9 @@
       <c r="AM33" s="2"/>
       <c r="AN33" s="2"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+    <row r="34" spans="1:40">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="4" t="s">
         <v>451</v>
       </c>
@@ -6078,9 +8215,9 @@
       <c r="AM34" s="2"/>
       <c r="AN34" s="2"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+    <row r="35" spans="1:40">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="4" t="s">
         <v>479</v>
       </c>
@@ -6166,9 +8303,9 @@
       <c r="AM35" s="2"/>
       <c r="AN35" s="2"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+    <row r="36" spans="1:40">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="4" t="s">
         <v>502</v>
       </c>
@@ -6226,9 +8363,9 @@
       <c r="AM36" s="2"/>
       <c r="AN36" s="2"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+    <row r="37" spans="1:40">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="5" t="s">
         <v>511</v>
       </c>
@@ -6283,9 +8420,9 @@
       <c r="AM37" s="2"/>
       <c r="AN37" s="2"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9" t="s">
+    <row r="38" spans="1:40">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12" t="s">
         <v>519</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -6347,9 +8484,9 @@
       <c r="AM38" s="8"/>
       <c r="AN38" s="8"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+    <row r="39" spans="1:40">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="4" t="s">
         <v>530</v>
       </c>
@@ -6411,9 +8548,9 @@
       <c r="AM39" s="2"/>
       <c r="AN39" s="2"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+    <row r="40" spans="1:40">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="4" t="s">
         <v>541</v>
       </c>
@@ -6491,9 +8628,9 @@
       <c r="AM40" s="2"/>
       <c r="AN40" s="2"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
+    <row r="41" spans="1:40">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="5" t="s">
         <v>559</v>
       </c>
@@ -6607,11 +8744,11 @@
       </c>
       <c r="AN41" s="3"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:40">
+      <c r="A42" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="12" t="s">
         <v>597</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -6703,9 +8840,9 @@
       <c r="AM42" s="2"/>
       <c r="AN42" s="2"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+    <row r="43" spans="1:40">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="6" t="s">
         <v>623</v>
       </c>
@@ -6773,9 +8910,9 @@
       <c r="AM43" s="2"/>
       <c r="AN43" s="2"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+    <row r="44" spans="1:40">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="6" t="s">
         <v>637</v>
       </c>
@@ -6837,9 +8974,9 @@
       <c r="AM44" s="2"/>
       <c r="AN44" s="2"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
+    <row r="45" spans="1:40">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="6" t="s">
         <v>648</v>
       </c>
@@ -6907,9 +9044,9 @@
       <c r="AM45" s="2"/>
       <c r="AN45" s="2"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+    <row r="46" spans="1:40">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="6" t="s">
         <v>662</v>
       </c>
@@ -6967,9 +9104,9 @@
       <c r="AM46" s="2"/>
       <c r="AN46" s="2"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
+    <row r="47" spans="1:40">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="6" t="s">
         <v>671</v>
       </c>
@@ -7035,9 +9172,9 @@
       <c r="AM47" s="2"/>
       <c r="AN47" s="2"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9" t="s">
+    <row r="48" spans="1:40">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12" t="s">
         <v>684</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -7139,9 +9276,9 @@
       <c r="AM48" s="2"/>
       <c r="AN48" s="2"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
+    <row r="49" spans="1:40">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="6" t="s">
         <v>715</v>
       </c>
@@ -7217,9 +9354,9 @@
       <c r="AM49" s="2"/>
       <c r="AN49" s="2"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
+    <row r="50" spans="1:40">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
       <c r="C50" s="6" t="s">
         <v>733</v>
       </c>
@@ -7277,9 +9414,9 @@
       <c r="AM50" s="2"/>
       <c r="AN50" s="2"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
+    <row r="51" spans="1:40">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
       <c r="C51" s="6" t="s">
         <v>742</v>
       </c>
@@ -7349,9 +9486,9 @@
       <c r="AM51" s="2"/>
       <c r="AN51" s="2"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9" t="s">
+    <row r="52" spans="1:40">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12" t="s">
         <v>757</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -7403,9 +9540,9 @@
       <c r="AM52" s="2"/>
       <c r="AN52" s="2"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
+    <row r="53" spans="1:40">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="6" t="s">
         <v>763</v>
       </c>
@@ -7453,9 +9590,9 @@
       <c r="AM53" s="2"/>
       <c r="AN53" s="2"/>
     </row>
-    <row r="54" spans="1:40" ht="28" x14ac:dyDescent="0.15">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
+    <row r="54" spans="1:40" ht="26">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
       <c r="C54" s="6" t="s">
         <v>767</v>
       </c>
@@ -7511,9 +9648,9 @@
       <c r="AM54" s="2"/>
       <c r="AN54" s="2"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9" t="s">
+    <row r="55" spans="1:40">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12" t="s">
         <v>775</v>
       </c>
       <c r="C55" s="6" t="s">
@@ -7559,9 +9696,9 @@
       <c r="AM55" s="2"/>
       <c r="AN55" s="2"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
+    <row r="56" spans="1:40">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="7" t="s">
         <v>778</v>
       </c>
@@ -7609,11 +9746,11 @@
       <c r="AM56" s="3"/>
       <c r="AN56" s="3"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A57" s="9" t="s">
+    <row r="57" spans="1:40">
+      <c r="A57" s="12" t="s">
         <v>782</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="12" t="s">
         <v>783</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -7667,9 +9804,9 @@
       <c r="AM57" s="2"/>
       <c r="AN57" s="2"/>
     </row>
-    <row r="58" spans="1:40" ht="28" x14ac:dyDescent="0.15">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
+    <row r="58" spans="1:40" ht="26">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="2" t="s">
         <v>790</v>
       </c>
@@ -7723,9 +9860,9 @@
       <c r="AM58" s="2"/>
       <c r="AN58" s="2"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
+    <row r="59" spans="1:40">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="2" t="s">
         <v>797</v>
       </c>
@@ -7779,9 +9916,9 @@
       <c r="AM59" s="2"/>
       <c r="AN59" s="2"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
+    <row r="60" spans="1:40">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="2" t="s">
         <v>804</v>
       </c>
@@ -7831,9 +9968,9 @@
       <c r="AM60" s="2"/>
       <c r="AN60" s="2"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
+    <row r="61" spans="1:40">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
       <c r="C61" s="2" t="s">
         <v>808</v>
       </c>
@@ -7895,9 +10032,9 @@
       <c r="AM61" s="2"/>
       <c r="AN61" s="2"/>
     </row>
-    <row r="62" spans="1:40" ht="28" x14ac:dyDescent="0.15">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9" t="s">
+    <row r="62" spans="1:40" ht="26">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12" t="s">
         <v>819</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -7961,9 +10098,9 @@
       <c r="AM62" s="2"/>
       <c r="AN62" s="2"/>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
+    <row r="63" spans="1:40">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
       <c r="C63" s="2" t="s">
         <v>831</v>
       </c>
@@ -8017,9 +10154,9 @@
       <c r="AM63" s="2"/>
       <c r="AN63" s="2"/>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
+    <row r="64" spans="1:40">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
       <c r="C64" s="2" t="s">
         <v>838</v>
       </c>
@@ -8069,9 +10206,9 @@
       <c r="AM64" s="2"/>
       <c r="AN64" s="2"/>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
+    <row r="65" spans="1:40">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
       <c r="C65" s="2" t="s">
         <v>843</v>
       </c>
@@ -8129,9 +10266,9 @@
       <c r="AM65" s="2"/>
       <c r="AN65" s="2"/>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
+    <row r="66" spans="1:40">
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
       <c r="C66" s="2" t="s">
         <v>852</v>
       </c>
@@ -8189,9 +10326,9 @@
       <c r="AM66" s="2"/>
       <c r="AN66" s="2"/>
     </row>
-    <row r="67" spans="1:40" ht="28" x14ac:dyDescent="0.15">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9" t="s">
+    <row r="67" spans="1:40" ht="26">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12" t="s">
         <v>861</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -8269,9 +10406,9 @@
       <c r="AM67" s="2"/>
       <c r="AN67" s="2"/>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
+    <row r="68" spans="1:40">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
       <c r="C68" s="2" t="s">
         <v>880</v>
       </c>
@@ -8329,9 +10466,9 @@
       <c r="AM68" s="2"/>
       <c r="AN68" s="2"/>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
+    <row r="69" spans="1:40">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
       <c r="C69" s="2" t="s">
         <v>889</v>
       </c>
@@ -8381,9 +10518,9 @@
       <c r="AM69" s="2"/>
       <c r="AN69" s="2"/>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9" t="s">
+    <row r="70" spans="1:40">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12" t="s">
         <v>893</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -8445,9 +10582,9 @@
       <c r="AM70" s="2"/>
       <c r="AN70" s="2"/>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
+    <row r="71" spans="1:40">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="2" t="s">
         <v>904</v>
       </c>
@@ -8515,11 +10652,11 @@
       <c r="AM71" s="2"/>
       <c r="AN71" s="2"/>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A72" s="9" t="s">
+    <row r="72" spans="1:40">
+      <c r="A72" s="12" t="s">
         <v>918</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="12" t="s">
         <v>919</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -8593,9 +10730,9 @@
       <c r="AM72" s="2"/>
       <c r="AN72" s="2"/>
     </row>
-    <row r="73" spans="1:40" ht="28" x14ac:dyDescent="0.15">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
+    <row r="73" spans="1:40" ht="26">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
       <c r="C73" s="2" t="s">
         <v>936</v>
       </c>
@@ -8669,9 +10806,9 @@
       <c r="AM73" s="2"/>
       <c r="AN73" s="2"/>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
+    <row r="74" spans="1:40">
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
       <c r="C74" s="2" t="s">
         <v>953</v>
       </c>
@@ -8731,9 +10868,9 @@
       <c r="AM74" s="2"/>
       <c r="AN74" s="2"/>
     </row>
-    <row r="75" spans="1:40" ht="28" x14ac:dyDescent="0.15">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
+    <row r="75" spans="1:40" ht="26">
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
       <c r="C75" s="2" t="s">
         <v>963</v>
       </c>
@@ -8807,9 +10944,9 @@
       <c r="AM75" s="2"/>
       <c r="AN75" s="2"/>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
+    <row r="76" spans="1:40">
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
       <c r="C76" s="2" t="s">
         <v>980</v>
       </c>
@@ -8873,9 +11010,9 @@
       <c r="AM76" s="2"/>
       <c r="AN76" s="2"/>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
+    <row r="77" spans="1:40">
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
       <c r="C77" s="2" t="s">
         <v>992</v>
       </c>
@@ -8935,9 +11072,9 @@
       <c r="AM77" s="2"/>
       <c r="AN77" s="2"/>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
+    <row r="78" spans="1:40">
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
       <c r="C78" s="2" t="s">
         <v>1002</v>
       </c>
@@ -8989,9 +11126,9 @@
       <c r="AM78" s="2"/>
       <c r="AN78" s="2"/>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
+    <row r="79" spans="1:40">
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
       <c r="C79" s="2" t="s">
         <v>1008</v>
       </c>
@@ -9041,9 +11178,9 @@
       <c r="AM79" s="2"/>
       <c r="AN79" s="2"/>
     </row>
-    <row r="80" spans="1:40" ht="28" x14ac:dyDescent="0.15">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
+    <row r="80" spans="1:40" ht="26">
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
       <c r="C80" s="2" t="s">
         <v>1013</v>
       </c>
@@ -9105,9 +11242,9 @@
       <c r="AM80" s="2"/>
       <c r="AN80" s="2"/>
     </row>
-    <row r="81" spans="1:40" ht="28" x14ac:dyDescent="0.15">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
+    <row r="81" spans="1:40" ht="26">
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
       <c r="C81" s="2" t="s">
         <v>1024</v>
       </c>
@@ -9167,9 +11304,9 @@
       <c r="AM81" s="2"/>
       <c r="AN81" s="2"/>
     </row>
-    <row r="82" spans="1:40" ht="28" x14ac:dyDescent="0.15">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
+    <row r="82" spans="1:40" ht="26">
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
       <c r="C82" s="2" t="s">
         <v>1034</v>
       </c>
@@ -9269,9 +11406,9 @@
       <c r="AM82" s="2"/>
       <c r="AN82" s="2"/>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
+    <row r="83" spans="1:40">
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
       <c r="C83" s="2" t="s">
         <v>1064</v>
       </c>
@@ -9315,36 +11452,939 @@
       <c r="AM83" s="2"/>
       <c r="AN83" s="2"/>
     </row>
+    <row r="84" spans="1:40" ht="15">
+      <c r="A84" s="12"/>
+      <c r="B84" s="13" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I84" s="11"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="9"/>
+      <c r="V84" s="9"/>
+      <c r="W84" s="9"/>
+      <c r="X84" s="9"/>
+      <c r="Y84" s="9"/>
+      <c r="Z84" s="9"/>
+      <c r="AA84" s="9"/>
+      <c r="AB84" s="9"/>
+      <c r="AC84" s="9"/>
+      <c r="AD84" s="9"/>
+      <c r="AE84" s="9"/>
+      <c r="AF84" s="9"/>
+      <c r="AG84" s="9"/>
+      <c r="AH84" s="9"/>
+      <c r="AI84" s="9"/>
+      <c r="AJ84" s="9"/>
+      <c r="AK84" s="9"/>
+      <c r="AL84" s="9"/>
+      <c r="AM84" s="9"/>
+      <c r="AN84" s="9"/>
+    </row>
+    <row r="85" spans="1:40" ht="15">
+      <c r="A85" s="12"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I85" s="11"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9"/>
+      <c r="V85" s="9"/>
+      <c r="W85" s="9"/>
+      <c r="X85" s="9"/>
+      <c r="Y85" s="9"/>
+      <c r="Z85" s="9"/>
+      <c r="AA85" s="9"/>
+      <c r="AB85" s="9"/>
+      <c r="AC85" s="9"/>
+      <c r="AD85" s="9"/>
+      <c r="AE85" s="9"/>
+      <c r="AF85" s="9"/>
+      <c r="AG85" s="9"/>
+      <c r="AH85" s="9"/>
+      <c r="AI85" s="9"/>
+      <c r="AJ85" s="9"/>
+      <c r="AK85" s="9"/>
+      <c r="AL85" s="9"/>
+      <c r="AM85" s="9"/>
+      <c r="AN85" s="9"/>
+    </row>
+    <row r="86" spans="1:40" ht="15">
+      <c r="A86" s="12"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="11" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H86" s="11"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
+      <c r="U86" s="9"/>
+      <c r="V86" s="9"/>
+      <c r="W86" s="9"/>
+      <c r="X86" s="9"/>
+      <c r="Y86" s="9"/>
+      <c r="Z86" s="9"/>
+      <c r="AA86" s="9"/>
+      <c r="AB86" s="9"/>
+      <c r="AC86" s="9"/>
+      <c r="AD86" s="9"/>
+      <c r="AE86" s="9"/>
+      <c r="AF86" s="9"/>
+      <c r="AG86" s="9"/>
+      <c r="AH86" s="9"/>
+      <c r="AI86" s="9"/>
+      <c r="AJ86" s="9"/>
+      <c r="AK86" s="9"/>
+      <c r="AL86" s="9"/>
+      <c r="AM86" s="9"/>
+      <c r="AN86" s="9"/>
+    </row>
+    <row r="87" spans="1:40" ht="15">
+      <c r="A87" s="12"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>1086</v>
+      </c>
+      <c r="L87" s="11"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
+      <c r="U87" s="9"/>
+      <c r="V87" s="9"/>
+      <c r="W87" s="9"/>
+      <c r="X87" s="9"/>
+      <c r="Y87" s="9"/>
+      <c r="Z87" s="9"/>
+      <c r="AA87" s="9"/>
+      <c r="AB87" s="9"/>
+      <c r="AC87" s="9"/>
+      <c r="AD87" s="9"/>
+      <c r="AE87" s="9"/>
+      <c r="AF87" s="9"/>
+      <c r="AG87" s="9"/>
+      <c r="AH87" s="9"/>
+      <c r="AI87" s="9"/>
+      <c r="AJ87" s="9"/>
+      <c r="AK87" s="9"/>
+      <c r="AL87" s="9"/>
+      <c r="AM87" s="9"/>
+      <c r="AN87" s="9"/>
+    </row>
+    <row r="88" spans="1:40" ht="15">
+      <c r="A88" s="12"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="11" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L88" s="11"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="9"/>
+      <c r="U88" s="9"/>
+      <c r="V88" s="9"/>
+      <c r="W88" s="9"/>
+      <c r="X88" s="9"/>
+      <c r="Y88" s="9"/>
+      <c r="Z88" s="9"/>
+      <c r="AA88" s="9"/>
+      <c r="AB88" s="9"/>
+      <c r="AC88" s="9"/>
+      <c r="AD88" s="9"/>
+      <c r="AE88" s="9"/>
+      <c r="AF88" s="9"/>
+      <c r="AG88" s="9"/>
+      <c r="AH88" s="9"/>
+      <c r="AI88" s="9"/>
+      <c r="AJ88" s="9"/>
+      <c r="AK88" s="9"/>
+      <c r="AL88" s="9"/>
+      <c r="AM88" s="9"/>
+      <c r="AN88" s="9"/>
+    </row>
+    <row r="89" spans="1:40" ht="15">
+      <c r="A89" s="12"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="L89" s="11"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="9"/>
+      <c r="U89" s="9"/>
+      <c r="V89" s="9"/>
+      <c r="W89" s="9"/>
+      <c r="X89" s="9"/>
+      <c r="Y89" s="9"/>
+      <c r="Z89" s="9"/>
+      <c r="AA89" s="9"/>
+      <c r="AB89" s="9"/>
+      <c r="AC89" s="9"/>
+      <c r="AD89" s="9"/>
+      <c r="AE89" s="9"/>
+      <c r="AF89" s="9"/>
+      <c r="AG89" s="9"/>
+      <c r="AH89" s="9"/>
+      <c r="AI89" s="9"/>
+      <c r="AJ89" s="9"/>
+      <c r="AK89" s="9"/>
+      <c r="AL89" s="9"/>
+      <c r="AM89" s="9"/>
+      <c r="AN89" s="9"/>
+    </row>
+    <row r="90" spans="1:40" ht="15">
+      <c r="A90" s="12"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="11" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H90" s="11"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="9"/>
+      <c r="U90" s="9"/>
+      <c r="V90" s="9"/>
+      <c r="W90" s="9"/>
+      <c r="X90" s="9"/>
+      <c r="Y90" s="9"/>
+      <c r="Z90" s="9"/>
+      <c r="AA90" s="9"/>
+      <c r="AB90" s="9"/>
+      <c r="AC90" s="9"/>
+      <c r="AD90" s="9"/>
+      <c r="AE90" s="9"/>
+      <c r="AF90" s="9"/>
+      <c r="AG90" s="9"/>
+      <c r="AH90" s="9"/>
+      <c r="AI90" s="9"/>
+      <c r="AJ90" s="9"/>
+      <c r="AK90" s="9"/>
+      <c r="AL90" s="9"/>
+      <c r="AM90" s="9"/>
+      <c r="AN90" s="9"/>
+    </row>
+    <row r="91" spans="1:40" ht="15">
+      <c r="A91" s="12"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I91" s="11"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="9"/>
+      <c r="V91" s="9"/>
+      <c r="W91" s="9"/>
+      <c r="X91" s="9"/>
+      <c r="Y91" s="9"/>
+      <c r="Z91" s="9"/>
+      <c r="AA91" s="9"/>
+      <c r="AB91" s="9"/>
+      <c r="AC91" s="9"/>
+      <c r="AD91" s="9"/>
+      <c r="AE91" s="9"/>
+      <c r="AF91" s="9"/>
+      <c r="AG91" s="9"/>
+      <c r="AH91" s="9"/>
+      <c r="AI91" s="9"/>
+      <c r="AJ91" s="9"/>
+      <c r="AK91" s="9"/>
+      <c r="AL91" s="9"/>
+      <c r="AM91" s="9"/>
+      <c r="AN91" s="9"/>
+    </row>
+    <row r="92" spans="1:40" ht="15">
+      <c r="A92" s="12"/>
+      <c r="B92" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>1145</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>1155</v>
+      </c>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="11"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="11"/>
+      <c r="T92" s="11"/>
+      <c r="U92" s="11"/>
+      <c r="V92" s="11"/>
+      <c r="W92" s="11"/>
+      <c r="X92" s="11"/>
+      <c r="Y92" s="11"/>
+      <c r="Z92" s="11"/>
+      <c r="AA92" s="11"/>
+      <c r="AB92" s="11"/>
+      <c r="AC92" s="11"/>
+      <c r="AD92" s="11"/>
+      <c r="AE92" s="11"/>
+      <c r="AF92" s="11"/>
+      <c r="AG92" s="11"/>
+      <c r="AH92" s="11"/>
+      <c r="AI92" s="11"/>
+      <c r="AJ92" s="11"/>
+      <c r="AK92" s="11"/>
+      <c r="AL92" s="11"/>
+      <c r="AM92" s="11"/>
+      <c r="AN92" s="11"/>
+    </row>
+    <row r="93" spans="1:40" ht="15">
+      <c r="A93" s="12"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>1125</v>
+      </c>
+      <c r="K93" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="L93" s="11" t="s">
+        <v>1126</v>
+      </c>
+      <c r="M93" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N93" s="11" t="s">
+        <v>1127</v>
+      </c>
+      <c r="O93" s="11" t="s">
+        <v>1128</v>
+      </c>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="11"/>
+      <c r="T93" s="11"/>
+      <c r="U93" s="11"/>
+      <c r="V93" s="11"/>
+      <c r="W93" s="11"/>
+      <c r="X93" s="11"/>
+      <c r="Y93" s="11"/>
+      <c r="Z93" s="11"/>
+      <c r="AA93" s="11"/>
+      <c r="AB93" s="11"/>
+      <c r="AC93" s="11"/>
+      <c r="AD93" s="11"/>
+      <c r="AE93" s="11"/>
+      <c r="AF93" s="11"/>
+      <c r="AG93" s="11"/>
+      <c r="AH93" s="11"/>
+      <c r="AI93" s="11"/>
+      <c r="AJ93" s="11"/>
+      <c r="AK93" s="11"/>
+      <c r="AL93" s="11"/>
+      <c r="AM93" s="11"/>
+      <c r="AN93" s="11"/>
+    </row>
+    <row r="94" spans="1:40" ht="15">
+      <c r="A94" s="12"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>1117</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>1118</v>
+      </c>
+      <c r="M94" s="11" t="s">
+        <v>1113</v>
+      </c>
+      <c r="N94" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="O94" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="P94" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q94" s="11"/>
+      <c r="R94" s="11"/>
+      <c r="S94" s="11"/>
+      <c r="T94" s="11"/>
+      <c r="U94" s="11"/>
+      <c r="V94" s="11"/>
+      <c r="W94" s="11"/>
+      <c r="X94" s="11"/>
+      <c r="Y94" s="11"/>
+      <c r="Z94" s="11"/>
+      <c r="AA94" s="11"/>
+      <c r="AB94" s="11"/>
+      <c r="AC94" s="11"/>
+      <c r="AD94" s="11"/>
+      <c r="AE94" s="11"/>
+      <c r="AF94" s="11"/>
+      <c r="AG94" s="11"/>
+      <c r="AH94" s="11"/>
+      <c r="AI94" s="11"/>
+      <c r="AJ94" s="11"/>
+      <c r="AK94" s="11"/>
+      <c r="AL94" s="11"/>
+      <c r="AM94" s="11"/>
+      <c r="AN94" s="11"/>
+    </row>
+    <row r="95" spans="1:40" ht="90">
+      <c r="A95" s="12"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="K95" s="11" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L95" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="M95" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="N95" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="O95" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="P95" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q95" s="11" t="s">
+        <v>1143</v>
+      </c>
+      <c r="R95" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="S95" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="T95" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="U95" s="11"/>
+      <c r="V95" s="11"/>
+      <c r="W95" s="11"/>
+      <c r="X95" s="11"/>
+      <c r="Y95" s="11"/>
+      <c r="Z95" s="11"/>
+      <c r="AA95" s="11"/>
+      <c r="AB95" s="11"/>
+      <c r="AC95" s="11"/>
+      <c r="AD95" s="11"/>
+      <c r="AE95" s="11"/>
+      <c r="AF95" s="11"/>
+      <c r="AG95" s="11"/>
+      <c r="AH95" s="11"/>
+      <c r="AI95" s="11"/>
+      <c r="AJ95" s="11"/>
+      <c r="AK95" s="11"/>
+      <c r="AL95" s="11"/>
+      <c r="AM95" s="11"/>
+      <c r="AN95" s="11"/>
+    </row>
+    <row r="96" spans="1:40" ht="15">
+      <c r="A96" s="12"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L96" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="M96" s="11" t="s">
+        <v>1134</v>
+      </c>
+      <c r="N96" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="O96" s="11" t="s">
+        <v>1135</v>
+      </c>
+      <c r="P96" s="11" t="s">
+        <v>1136</v>
+      </c>
+      <c r="Q96" s="11" t="s">
+        <v>1137</v>
+      </c>
+      <c r="R96" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="S96" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="T96" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="U96" s="11" t="s">
+        <v>1138</v>
+      </c>
+      <c r="V96" s="11" t="s">
+        <v>1139</v>
+      </c>
+      <c r="W96" s="11"/>
+      <c r="X96" s="11"/>
+      <c r="Y96" s="11"/>
+      <c r="Z96" s="11"/>
+      <c r="AA96" s="11"/>
+      <c r="AB96" s="11"/>
+      <c r="AC96" s="11"/>
+      <c r="AD96" s="11"/>
+      <c r="AE96" s="11"/>
+      <c r="AF96" s="11"/>
+      <c r="AG96" s="11"/>
+      <c r="AH96" s="11"/>
+      <c r="AI96" s="11"/>
+      <c r="AJ96" s="11"/>
+      <c r="AK96" s="11"/>
+      <c r="AL96" s="11"/>
+      <c r="AM96" s="11"/>
+      <c r="AN96" s="11"/>
+    </row>
+    <row r="97" spans="1:40" ht="15">
+      <c r="A97" s="12"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="11" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I97" s="11" t="s">
+        <v>1152</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="K97" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="L97" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M97" s="11" t="s">
+        <v>1153</v>
+      </c>
+      <c r="N97" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="O97" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="P97" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q97" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="R97" s="11"/>
+      <c r="S97" s="11"/>
+      <c r="T97" s="11"/>
+      <c r="U97" s="11"/>
+      <c r="V97" s="11"/>
+      <c r="W97" s="11"/>
+      <c r="X97" s="11"/>
+      <c r="Y97" s="11"/>
+      <c r="Z97" s="11"/>
+      <c r="AA97" s="11"/>
+      <c r="AB97" s="11"/>
+      <c r="AC97" s="11"/>
+      <c r="AD97" s="11"/>
+      <c r="AE97" s="11"/>
+      <c r="AF97" s="11"/>
+      <c r="AG97" s="11"/>
+      <c r="AH97" s="11"/>
+      <c r="AI97" s="11"/>
+      <c r="AJ97" s="11"/>
+      <c r="AK97" s="11"/>
+      <c r="AL97" s="11"/>
+      <c r="AM97" s="11"/>
+      <c r="AN97" s="11"/>
+    </row>
+    <row r="111" spans="1:40" ht="15">
+      <c r="B111"/>
+    </row>
+    <row r="112" spans="1:40" ht="15">
+      <c r="B112"/>
+    </row>
+    <row r="113" spans="2:2" ht="15">
+      <c r="B113"/>
+    </row>
+    <row r="114" spans="2:2" ht="15">
+      <c r="B114"/>
+    </row>
+    <row r="115" spans="2:2" ht="15">
+      <c r="B115"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B83"/>
+  <mergeCells count="28">
+    <mergeCell ref="B92:B97"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="A1:A18"/>
+    <mergeCell ref="A19:A31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B24"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="B32:B37"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="B42:B47"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A1:A18"/>
-    <mergeCell ref="A19:A31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="B55:B56"/>
     <mergeCell ref="A57:A71"/>
     <mergeCell ref="A72:A83"/>
+    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="A84:A91"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B72:B83"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B70:B71"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9354,10 +12394,15 @@
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9367,9 +12412,14 @@
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>